--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tech\diy\diy esk8 - public repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F590AF60-6943-4E8F-8B2E-DD90AF0F8155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D34A9C-F5E2-43A0-B666-FE8C4E574F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{C003B9CF-A73B-4ED7-823D-284A7F431E61}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Already bought</t>
   </si>
   <si>
-    <t>https://www.alibaba.com/product-detail/Double-Kingpin-Rear-Front-Trucks-15_1601595510200.html?spm=a2700.prosearch.normal_offer.d_image.6aff67afWrLuJL&amp;priceId=fe06ee03be34402ca111a61822ca5bf5</t>
-  </si>
-  <si>
     <t>cheap bms 14s 100a</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>4psc 105mm wheel - cheapest that will not kill me [hopefully] on Poland crosswalks and roads</t>
   </si>
   <si>
-    <t>Trucks for electric longboards - cheapest was on alibaba</t>
-  </si>
-  <si>
     <t>https://flipsky.net/collections/electronic-products/products/mini-v6-mk5-with-power-button</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>What*</t>
+  </si>
+  <si>
+    <t>https://flipsky.net/products/12-double-kingpin-trucks?variant=39376676126907</t>
+  </si>
+  <si>
+    <t>Trucks for electric longboards</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F33" sqref="F29:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -740,22 +740,22 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5">
         <f>C6*H22</f>
-        <v>274.89</v>
+        <v>395.91300000000001</v>
       </c>
       <c r="C6" s="5">
-        <v>77</v>
+        <v>110.9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>140</v>
@@ -765,12 +765,12 @@
         <v>39.215686274509807</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>14.29</v>
@@ -780,12 +780,12 @@
         <v>4.0028011204481793</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
         <v>54.59</v>
@@ -795,12 +795,12 @@
         <v>15.291316526610647</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5">
         <v>12.19</v>
@@ -810,12 +810,12 @@
         <v>3.4145658263305321</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>45.89</v>
@@ -825,12 +825,12 @@
         <v>12.854341736694678</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>156.59</v>
@@ -840,12 +840,12 @@
         <v>43.86274509803922</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>362.79</v>
@@ -855,12 +855,12 @@
         <v>101.6218487394958</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <f>C14*H22</f>
@@ -870,27 +870,27 @@
         <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <f>H22*C15</f>
-        <v>577.98299999999995</v>
+        <v>542.64</v>
       </c>
       <c r="C15" s="5">
-        <v>161.9</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5">
         <f>24*13.9</f>
@@ -901,7 +901,7 @@
         <v>93.445378151260513</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="H26" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I26" s="12"/>
     </row>
@@ -983,10 +983,10 @@
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="H27" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -996,11 +996,11 @@
       <c r="D28" s="1"/>
       <c r="H28" s="9">
         <f>SUM(C2:C48)</f>
-        <v>709.57226890756306</v>
+        <v>733.57226890756306</v>
       </c>
       <c r="I28" s="10">
         <f>SUM(B2:B48)</f>
-        <v>2533.1730000000002</v>
+        <v>2618.8530000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1014,6 +1014,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
